--- a/biology/Zoologie/Adieu_Lady/Adieu_Lady.xlsx
+++ b/biology/Zoologie/Adieu_Lady/Adieu_Lady.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adieu Lady (Good-bye, My Lady) est un film américain en noir et blanc réalisé par William A. Wellman, sorti en 1956.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les marécages du Mississippi, un garçon orphelin vit pauvrement avec son oncle dans une cabane. Il trouve un chien Basenji errant et le dresse, puis apprend la maturité quand il est forcé de rendre l'animal à son propriétaire légitime.
 Les spectateurs du film, aussi bien que les lecteurs du roman duquel est tiré le film, ont été surpris par la fin inattendue et inhabituelle de l'histoire.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Adieu Lady
 Titre original : Good-bye, My Lady
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brandon De Wilde : Skeeter Jackson
